--- a/data/tq/湖南工程职业技术学院.xlsx
+++ b/data/tq/湖南工程职业技术学院.xlsx
@@ -1,43 +1,235 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\niece_edu\data\tq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB5801-C84D-4067-8E30-6923202DC950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+  <si>
+    <t>组别</t>
+  </si>
+  <si>
+    <t>专业名称</t>
+  </si>
+  <si>
+    <t>学制</t>
+  </si>
+  <si>
+    <t>学费（元/年）</t>
+  </si>
+  <si>
+    <t>专业组一</t>
+  </si>
+  <si>
+    <t>测绘地理信息技术</t>
+  </si>
+  <si>
+    <t>三年</t>
+  </si>
+  <si>
+    <t>测绘地理信息技术(北斗应用方向)</t>
+  </si>
+  <si>
+    <t>测绘地理信息技术(数据库方向)</t>
+  </si>
+  <si>
+    <t>工程测量技术</t>
+  </si>
+  <si>
+    <t>国土空间规划与测绘</t>
+  </si>
+  <si>
+    <t>国土空间规划与测绘（国土调查与监测方向）</t>
+  </si>
+  <si>
+    <t>摄影测量与遥感技术</t>
+  </si>
+  <si>
+    <t>宝玉石鉴定与加工</t>
+  </si>
+  <si>
+    <t>地质调查与矿产普查</t>
+  </si>
+  <si>
+    <t>地质调查与矿产普查(数字地质方向)</t>
+  </si>
+  <si>
+    <t>环境地质工程</t>
+  </si>
+  <si>
+    <t>环境地质工程（生态修复方向）</t>
+  </si>
+  <si>
+    <t>岩土工程技术</t>
+  </si>
+  <si>
+    <t>岩土工程技术（工程检测与监测方向）</t>
+  </si>
+  <si>
+    <t>钻探工程技术</t>
+  </si>
+  <si>
+    <t>大数据技术</t>
+  </si>
+  <si>
+    <t>大数据技术(地理信息应用方向)</t>
+  </si>
+  <si>
+    <t>电子信息工程技术(自动化控制方向)</t>
+  </si>
+  <si>
+    <t>计算机应用技术</t>
+  </si>
+  <si>
+    <t>人工智能技术应用</t>
+  </si>
+  <si>
+    <t>人工智能技术应用（机器人方向）</t>
+  </si>
+  <si>
+    <t>软件技术</t>
+  </si>
+  <si>
+    <t>道路与桥梁工程技术</t>
+  </si>
+  <si>
+    <t>地下与隧道工程技术</t>
+  </si>
+  <si>
+    <t>建筑工程技术(智能设备安装与维护方向)</t>
+  </si>
+  <si>
+    <t>房地产经营与管理</t>
+  </si>
+  <si>
+    <t>工程造价</t>
+  </si>
+  <si>
+    <t>工程造价（数智合约管理方向）</t>
+  </si>
+  <si>
+    <t>建设工程管理</t>
+  </si>
+  <si>
+    <t>建筑经济信息化管理</t>
+  </si>
+  <si>
+    <t>动漫制作技术</t>
+  </si>
+  <si>
+    <t>环境艺术设计</t>
+  </si>
+  <si>
+    <t>建筑室内设计</t>
+  </si>
+  <si>
+    <t>建筑装饰工程技术（装饰设计与数字建造方向）</t>
+  </si>
+  <si>
+    <t>大数据与会计</t>
+  </si>
+  <si>
+    <t>国际经济与贸易</t>
+  </si>
+  <si>
+    <t>国际经济与贸易（珠宝首饰数字外贸方向）</t>
+  </si>
+  <si>
+    <t>市场营销</t>
+  </si>
+  <si>
+    <t>市场营销（珠宝首饰数字营销方向）</t>
+  </si>
+  <si>
+    <t>现代物流管理</t>
+  </si>
+  <si>
+    <t>酒店管理与数字化运营</t>
+  </si>
+  <si>
+    <t>旅游管理</t>
+  </si>
+  <si>
+    <t>旅游管理(生态旅游方向)</t>
+  </si>
+  <si>
+    <t>应用英语</t>
+  </si>
+  <si>
+    <t>专业组二</t>
+  </si>
+  <si>
+    <t>建筑工程技术</t>
+  </si>
+  <si>
+    <t>建筑工程技术(智慧建造方向)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -46,93 +238,103 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,28 +622,655 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5060</v>
+      </c>
+      <c r="E48" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A46"/>
+    <mergeCell ref="A47:A48"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>